--- a/PricePredictD.xlsx
+++ b/PricePredictD.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
+  <si>
+    <t>Pair1</t>
+  </si>
   <si>
     <t>Long</t>
   </si>
@@ -30,13 +33,13 @@
     <t>CreateDate</t>
   </si>
   <si>
-    <t>PredictDate</t>
-  </si>
-  <si>
     <t>PredictResult</t>
   </si>
   <si>
-    <t>ClosePrice</t>
+    <t>PredictRate</t>
+  </si>
+  <si>
+    <t>Pair2</t>
   </si>
   <si>
     <t>DataDate</t>
@@ -54,13 +57,8 @@
     <t>ETHUSDT</t>
   </si>
   <si>
-    <t>Pair1</t>
-  </si>
-  <si>
-    <t>Pair2</t>
-  </si>
-  <si>
-    <t>NULL</t>
+    <t>ClosePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,61 +405,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -475,23 +467,23 @@
       <c r="E2" s="1">
         <v>43539.989702465275</v>
       </c>
-      <c r="F2" s="1">
-        <v>43540.989702465275</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>3989.53</v>
+        <v>3927.02</v>
       </c>
       <c r="J2" s="1">
-        <v>43540</v>
+        <v>43539</v>
       </c>
       <c r="K2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -499,7 +491,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>34.622100000000003</v>
@@ -513,20 +505,20 @@
       <c r="E3" s="1">
         <v>43540.989701122686</v>
       </c>
-      <c r="F3" s="1">
-        <v>43541.989701122686</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>3989.23</v>
+        <v>3989.53</v>
       </c>
       <c r="J3" s="1">
-        <v>43541</v>
+        <v>43540</v>
       </c>
       <c r="K3">
         <v>-1</v>
@@ -537,7 +529,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>4.3700000000000003E-2</v>
@@ -551,23 +543,23 @@
       <c r="E4" s="1">
         <v>43541.989701851853</v>
       </c>
-      <c r="F4" s="1">
-        <v>43542.989701851853</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>3981.2</v>
+        <v>3989.23</v>
       </c>
       <c r="J4" s="1">
-        <v>43542</v>
+        <v>43541</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -575,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>13.2117</v>
@@ -589,20 +581,20 @@
       <c r="E5" s="1">
         <v>43542.989702893516</v>
       </c>
-      <c r="F5" s="1">
-        <v>43543.989702893516</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>3996.88</v>
+        <v>3981.2</v>
       </c>
       <c r="J5" s="1">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -613,7 +605,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>7.9385000000000003</v>
@@ -627,23 +619,23 @@
       <c r="E6" s="1">
         <v>43543.989735914351</v>
       </c>
-      <c r="F6" s="1">
-        <v>43544.989735914351</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>4014.95</v>
+        <v>3996.88</v>
       </c>
       <c r="J6" s="1">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -651,7 +643,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>38.504899999999999</v>
@@ -665,23 +657,23 @@
       <c r="E7" s="1">
         <v>43544.989737233795</v>
       </c>
-      <c r="F7" s="1">
-        <v>43545.989737233795</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>3973</v>
+        <v>4014.95</v>
       </c>
       <c r="J7" s="1">
-        <v>43545</v>
+        <v>43544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -689,7 +681,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>15.8133</v>
@@ -703,20 +695,20 @@
       <c r="E8" s="1">
         <v>43545.989702395833</v>
       </c>
-      <c r="F8" s="1">
-        <v>43546.989702395833</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>3994.01</v>
+        <v>3973</v>
       </c>
       <c r="J8" s="1">
-        <v>43546</v>
+        <v>43545</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -727,7 +719,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>10.3775</v>
@@ -741,23 +733,23 @@
       <c r="E9" s="1">
         <v>43546.989703553241</v>
       </c>
-      <c r="F9" s="1">
-        <v>43547.989703553241</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>3999.98</v>
+        <v>3994.01</v>
       </c>
       <c r="J9" s="1">
-        <v>43547</v>
+        <v>43546</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -765,7 +757,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1.8E-3</v>
@@ -779,20 +771,20 @@
       <c r="E10" s="1">
         <v>43547.989735763891</v>
       </c>
-      <c r="F10" s="1">
-        <v>43548.989735763891</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>3993</v>
+        <v>3999.98</v>
       </c>
       <c r="J10" s="1">
-        <v>43548</v>
+        <v>43547</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -803,7 +795,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2.5000000000000001E-3</v>
@@ -817,20 +809,20 @@
       <c r="E11" s="1">
         <v>43548.989734953706</v>
       </c>
-      <c r="F11" s="1">
-        <v>43549.989734953706</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>3963.41</v>
+        <v>3993</v>
       </c>
       <c r="J11" s="1">
-        <v>43549</v>
+        <v>43548</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -841,7 +833,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>5.7999999999999996E-3</v>
@@ -855,23 +847,23 @@
       <c r="E12" s="1">
         <v>43549.989704479165</v>
       </c>
-      <c r="F12" s="1">
-        <v>43550.989704479165</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>3940.96</v>
+        <v>3963.41</v>
       </c>
       <c r="J12" s="1">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -879,7 +871,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0.10920000000000001</v>
@@ -893,20 +885,20 @@
       <c r="E13" s="1">
         <v>43550.989735613424</v>
       </c>
-      <c r="F13" s="1">
-        <v>43551.989735613424</v>
+      <c r="F13">
+        <v>-1</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>-67.442800000000005</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>4023.52</v>
+        <v>3940.96</v>
       </c>
       <c r="J13" s="1">
-        <v>43551</v>
+        <v>43550</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -917,7 +909,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>63.823399999999999</v>
@@ -931,20 +923,20 @@
       <c r="E14" s="1">
         <v>43551.989702349536</v>
       </c>
-      <c r="F14" s="1">
-        <v>43552.989702349536</v>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>63.823399999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>4030.74</v>
+        <v>4023.52</v>
       </c>
       <c r="J14" s="1">
-        <v>43552</v>
+        <v>43551</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -955,7 +947,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>49.532200000000003</v>
@@ -969,23 +961,23 @@
       <c r="E15" s="1">
         <v>43552.98973533565</v>
       </c>
-      <c r="F15" s="1">
-        <v>43553.98973533565</v>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>4091.6</v>
+        <v>4030.74</v>
       </c>
       <c r="J15" s="1">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -993,7 +985,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>40.863100000000003</v>
@@ -1007,23 +999,23 @@
       <c r="E16" s="1">
         <v>43553.989736226853</v>
       </c>
-      <c r="F16" s="1">
-        <v>43554.989736226853</v>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>4076.92</v>
+        <v>4091.6</v>
       </c>
       <c r="J16" s="1">
-        <v>43554</v>
+        <v>43553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1031,7 +1023,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>6.0468000000000002</v>
@@ -1045,20 +1037,20 @@
       <c r="E17" s="1">
         <v>43554.989702511572</v>
       </c>
-      <c r="F17" s="1">
-        <v>43555.989702511572</v>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>4098.3900000000003</v>
+        <v>4076.92</v>
       </c>
       <c r="J17" s="1">
-        <v>43555</v>
+        <v>43554</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1069,7 +1061,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>8.3109000000000002</v>
@@ -1083,20 +1075,20 @@
       <c r="E18" s="1">
         <v>43555.989703900465</v>
       </c>
-      <c r="F18" s="1">
-        <v>43556.989703900465</v>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>4144.79</v>
+        <v>4098.3900000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>43556</v>
+        <v>43555</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1107,7 +1099,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>99.879900000000006</v>
@@ -1121,20 +1113,20 @@
       <c r="E19" s="1">
         <v>43556.989704398147</v>
       </c>
-      <c r="F19" s="1">
-        <v>43557.989704398147</v>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>99.879900000000006</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>4735.04</v>
+        <v>4144.79</v>
       </c>
       <c r="J19" s="1">
-        <v>43557</v>
+        <v>43556</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1145,7 +1137,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>99.937899999999999</v>
@@ -1159,20 +1151,20 @@
       <c r="E20" s="1">
         <v>43557.989702858795</v>
       </c>
-      <c r="F20" s="1">
-        <v>43558.989702858795</v>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>99.937899999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20">
-        <v>4961.8599999999997</v>
+        <v>4735.04</v>
       </c>
       <c r="J20" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1183,7 +1175,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>99.767099999999999</v>
@@ -1197,31 +1189,31 @@
       <c r="E21" s="1">
         <v>43558.989702002313</v>
       </c>
-      <c r="F21" s="1">
-        <v>43559.989702002313</v>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>99.767099999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>4979.6499999999996</v>
+        <v>4961.8599999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>99.718900000000005</v>
@@ -1235,31 +1227,31 @@
       <c r="E22" s="1">
         <v>43559.989735763891</v>
       </c>
-      <c r="F22" s="1">
-        <v>43560.989735763891</v>
+      <c r="F22">
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>99.718900000000005</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>4966.1499999999996</v>
+        <v>4979.6499999999996</v>
       </c>
       <c r="J22" s="1">
-        <v>43560</v>
+        <v>43559</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>33.7746</v>
@@ -1273,20 +1265,20 @@
       <c r="E23" s="1">
         <v>43560.989701585648</v>
       </c>
-      <c r="F23" s="1">
-        <v>43561.989701585648</v>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>5091.99</v>
+        <v>4966.1499999999996</v>
       </c>
       <c r="J23" s="1">
-        <v>43561</v>
+        <v>43560</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1297,7 +1289,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>99.702399999999997</v>
@@ -1311,20 +1303,20 @@
       <c r="E24" s="1">
         <v>43561.989704548614</v>
       </c>
-      <c r="F24" s="1">
-        <v>43562.989704548614</v>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>99.702399999999997</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>5120.8999999999996</v>
+        <v>5091.99</v>
       </c>
       <c r="J24" s="1">
-        <v>43562</v>
+        <v>43561</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1335,7 +1327,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>99.828400000000002</v>
@@ -1349,31 +1341,31 @@
       <c r="E25" s="1">
         <v>43562.989701967592</v>
       </c>
-      <c r="F25" s="1">
-        <v>43563.989701967592</v>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>99.828400000000002</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25">
-        <v>5192.1499999999996</v>
+        <v>5120.8999999999996</v>
       </c>
       <c r="J25" s="1">
-        <v>43563</v>
+        <v>43562</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1387,31 +1379,31 @@
       <c r="E26" s="1">
         <v>43563.98970416667</v>
       </c>
-      <c r="F26" s="1">
-        <v>43564.98970416667</v>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26">
-        <v>5156.74</v>
+        <v>5192.1499999999996</v>
       </c>
       <c r="J26" s="1">
-        <v>43564</v>
+        <v>43563</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1425,31 +1417,31 @@
       <c r="E27" s="1">
         <v>43564.989702430554</v>
       </c>
-      <c r="F27" s="1">
-        <v>43565.989702430554</v>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>5244.46</v>
+        <v>5156.74</v>
       </c>
       <c r="J27" s="1">
-        <v>43565</v>
+        <v>43564</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>99.303299999999993</v>
@@ -1463,31 +1455,31 @@
       <c r="E28" s="1">
         <v>43565.989701851853</v>
       </c>
-      <c r="F28" s="1">
-        <v>43566.989701851853</v>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>99.303299999999993</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>4993.3</v>
+        <v>5244.46</v>
       </c>
       <c r="J28" s="1">
-        <v>43566</v>
+        <v>43565</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>2.52E-2</v>
@@ -1501,20 +1493,20 @@
       <c r="E29" s="1">
         <v>43566.989739317127</v>
       </c>
-      <c r="F29" s="1">
-        <v>43567.989739317127</v>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>5040.8599999999997</v>
+        <v>4993.3</v>
       </c>
       <c r="J29" s="1">
-        <v>43567</v>
+        <v>43566</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1525,7 +1517,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>5.6300000000000003E-2</v>
@@ -1539,20 +1531,20 @@
       <c r="E30" s="1">
         <v>43567.989701655089</v>
       </c>
-      <c r="F30" s="1">
-        <v>43568.989701655089</v>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>5052.9399999999996</v>
+        <v>5040.8599999999997</v>
       </c>
       <c r="J30" s="1">
-        <v>43568</v>
+        <v>43567</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -1563,7 +1555,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>3.2599999999999997E-2</v>
@@ -1577,20 +1569,20 @@
       <c r="E31" s="1">
         <v>43568.989704548614</v>
       </c>
-      <c r="F31" s="1">
-        <v>43569.989704548614</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>5061.53</v>
+        <v>5052.9399999999996</v>
       </c>
       <c r="J31" s="1">
-        <v>43569</v>
+        <v>43568</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1601,7 +1593,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>9.4E-2</v>
@@ -1615,23 +1607,23 @@
       <c r="E32" s="1">
         <v>43569.989704432868</v>
       </c>
-      <c r="F32" s="1">
-        <v>43570.989704432868</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>5133.24</v>
+        <v>5061.53</v>
       </c>
       <c r="J32" s="1">
-        <v>43570</v>
+        <v>43569</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1639,7 +1631,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>4.4400000000000002E-2</v>
@@ -1653,23 +1645,23 @@
       <c r="E33" s="1">
         <v>43570.989702280094</v>
       </c>
-      <c r="F33" s="1">
-        <v>43571.989702280094</v>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>5069.74</v>
+        <v>5133.24</v>
       </c>
       <c r="J33" s="1">
-        <v>43571</v>
+        <v>43570</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1677,7 +1669,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1691,20 +1683,20 @@
       <c r="E34" s="1">
         <v>43571.989735763891</v>
       </c>
-      <c r="F34" s="1">
-        <v>43572.989735763891</v>
+      <c r="F34">
+        <v>-1</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>-96.384500000000003</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34">
-        <v>5183.5</v>
+        <v>5069.74</v>
       </c>
       <c r="J34" s="1">
-        <v>43572</v>
+        <v>43571</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -1715,7 +1707,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>87.965400000000002</v>
@@ -1729,20 +1721,20 @@
       <c r="E35" s="1">
         <v>43572.989700034719</v>
       </c>
-      <c r="F35" s="1">
-        <v>43573.989700034719</v>
+      <c r="F35">
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>87.965400000000002</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>5231.17</v>
+        <v>5183.5</v>
       </c>
       <c r="J35" s="1">
-        <v>43573</v>
+        <v>43572</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -1753,7 +1745,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>66.599699999999999</v>
@@ -1767,20 +1759,20 @@
       <c r="E36" s="1">
         <v>43573.989701469909</v>
       </c>
-      <c r="F36" s="1">
-        <v>43574.989701469909</v>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>66.599699999999999</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36">
-        <v>5262.84</v>
+        <v>5231.17</v>
       </c>
       <c r="J36" s="1">
-        <v>43574</v>
+        <v>43573</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -1791,7 +1783,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0.61160000000000003</v>
@@ -1805,23 +1797,23 @@
       <c r="E37" s="1">
         <v>43574.98973483796</v>
       </c>
-      <c r="F37" s="1">
-        <v>43575.98973483796</v>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I37">
-        <v>5288.85</v>
+        <v>5262.84</v>
       </c>
       <c r="J37" s="1">
-        <v>43575</v>
+        <v>43574</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -1829,7 +1821,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0.37840000000000001</v>
@@ -1843,23 +1835,23 @@
       <c r="E38" s="1">
         <v>43575.989700925929</v>
       </c>
-      <c r="F38" s="1">
-        <v>43576.989700925929</v>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>5238.1000000000004</v>
+        <v>5288.85</v>
       </c>
       <c r="J38" s="1">
-        <v>43576</v>
+        <v>43575</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -1867,7 +1859,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0.22969999999999999</v>
@@ -1881,20 +1873,20 @@
       <c r="E39" s="1">
         <v>43576.989701122686</v>
       </c>
-      <c r="F39" s="1">
-        <v>43577.989701122686</v>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39">
-        <v>5278.3</v>
+        <v>5238.1000000000004</v>
       </c>
       <c r="J39" s="1">
-        <v>43577</v>
+        <v>43576</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -1905,7 +1897,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0.1704</v>
@@ -1919,23 +1911,23 @@
       <c r="E40" s="1">
         <v>43577.989735416668</v>
       </c>
-      <c r="F40" s="1">
-        <v>43578.989735416668</v>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40">
-        <v>5534.96</v>
+        <v>5278.3</v>
       </c>
       <c r="J40" s="1">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -1943,7 +1935,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>99.924099999999996</v>
@@ -1957,31 +1949,31 @@
       <c r="E41" s="1">
         <v>43578.989701006947</v>
       </c>
-      <c r="F41" s="1">
-        <v>43579.989701006947</v>
+      <c r="F41">
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>99.924099999999996</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <v>5425.35</v>
+        <v>5534.96</v>
       </c>
       <c r="J41" s="1">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>0.21859999999999999</v>
@@ -1995,23 +1987,23 @@
       <c r="E42" s="1">
         <v>43579.989699687503</v>
       </c>
-      <c r="F42" s="1">
-        <v>43580.989699687503</v>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>5428.55</v>
+        <v>5425.35</v>
       </c>
       <c r="J42" s="1">
-        <v>43580</v>
+        <v>43579</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2019,7 +2011,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>28.670300000000001</v>
@@ -2033,20 +2025,20 @@
       <c r="E43" s="1">
         <v>43580.98970046296</v>
       </c>
-      <c r="F43" s="1">
-        <v>43581.98970046296</v>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>5318</v>
+        <v>5428.55</v>
       </c>
       <c r="J43" s="1">
-        <v>43581</v>
+        <v>43580</v>
       </c>
       <c r="K43">
         <v>-1</v>
@@ -2057,37 +2049,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>8.8599999999999998E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="C44">
-        <v>71.385199999999998</v>
+        <v>86.876099999999994</v>
       </c>
       <c r="D44">
-        <v>28.526199999999999</v>
+        <v>13.070600000000001</v>
       </c>
       <c r="E44" s="1">
-        <v>43584.989700925929</v>
-      </c>
-      <c r="F44" s="1">
-        <v>43585.989700925929</v>
+        <v>43581.989699965277</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>5311.96</v>
+        <v>5318</v>
       </c>
       <c r="J44" s="1">
-        <v>43585</v>
+        <v>43581</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2095,7 +2087,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>24.2927</v>
@@ -2109,20 +2101,20 @@
       <c r="E45" s="1">
         <v>43585.98973429398</v>
       </c>
-      <c r="F45" s="1">
-        <v>43586.98973429398</v>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I45">
-        <v>5354</v>
+        <v>5311.96</v>
       </c>
       <c r="J45" s="1">
-        <v>43586</v>
+        <v>43585</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2133,7 +2125,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>2.3400000000000001E-2</v>
@@ -2147,20 +2139,20 @@
       <c r="E46" s="1">
         <v>43586.989702314815</v>
       </c>
-      <c r="F46" s="1">
-        <v>43587.989702314815</v>
+      <c r="F46">
+        <v>-1</v>
       </c>
       <c r="G46">
-        <v>-1</v>
+        <v>-55.730800000000002</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I46">
-        <v>5390.19</v>
+        <v>5354</v>
       </c>
       <c r="J46" s="1">
-        <v>43587</v>
+        <v>43586</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2171,7 +2163,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>43.564500000000002</v>
@@ -2185,23 +2177,23 @@
       <c r="E47" s="1">
         <v>43588.989701122686</v>
       </c>
-      <c r="F47" s="1">
-        <v>43589.989701122686</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>5643.47</v>
+        <v>5787.73</v>
       </c>
       <c r="J47" s="1">
-        <v>43589</v>
+        <v>43588</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2209,7 +2201,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>0.28460000000000002</v>
@@ -2223,23 +2215,23 @@
       <c r="E48" s="1">
         <v>43589.989700891201</v>
       </c>
-      <c r="F48" s="1">
-        <v>43590.989700891201</v>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48">
-        <v>5771.93</v>
+        <v>5643.47</v>
       </c>
       <c r="J48" s="1">
-        <v>43590</v>
+        <v>43589</v>
       </c>
       <c r="K48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2247,7 +2239,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>39.2117</v>
@@ -2261,23 +2253,23 @@
       <c r="E49" s="1">
         <v>43590.989734756942</v>
       </c>
-      <c r="F49" s="1">
-        <v>43591.989734756942</v>
+      <c r="F49">
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I49">
-        <v>5730.99</v>
+        <v>5771.93</v>
       </c>
       <c r="J49" s="1">
-        <v>43591</v>
+        <v>43590</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -2285,7 +2277,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>40.813600000000001</v>
@@ -2299,20 +2291,20 @@
       <c r="E50" s="1">
         <v>43591.989701041668</v>
       </c>
-      <c r="F50" s="1">
-        <v>43592.989701041668</v>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I50">
-        <v>5917.17</v>
+        <v>5730.99</v>
       </c>
       <c r="J50" s="1">
-        <v>43592</v>
+        <v>43591</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -2323,7 +2315,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>38.846899999999998</v>
@@ -2337,23 +2329,23 @@
       <c r="E51" s="1">
         <v>43592.989734641204</v>
       </c>
-      <c r="F51" s="1">
-        <v>43593.989734641204</v>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51">
-        <v>5921</v>
+        <v>5917.17</v>
       </c>
       <c r="J51" s="1">
-        <v>43593</v>
-      </c>
-      <c r="K51" t="s">
-        <v>14</v>
+        <v>43592</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2364,34 +2356,34 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>1.5100000000000001E-2</v>
+        <v>99.992800000000003</v>
       </c>
       <c r="C52">
-        <v>37.403399999999998</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D52">
-        <v>62.581499999999998</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>43539.989701076389</v>
-      </c>
-      <c r="F52" s="1">
-        <v>43540.989701076389</v>
+        <v>43593.989700613427</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>-1</v>
+        <v>99.992800000000003</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
       </c>
       <c r="I52">
-        <v>140.18</v>
+        <v>5952</v>
       </c>
       <c r="J52" s="1">
-        <v>43540</v>
+        <v>43593</v>
       </c>
       <c r="K52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -2399,75 +2391,75 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>37.607300000000002</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="C53">
-        <v>62.392699999999998</v>
+        <v>37.403399999999998</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>62.581499999999998</v>
       </c>
       <c r="E53" s="1">
-        <v>43540.989702893516</v>
-      </c>
-      <c r="F53" s="1">
-        <v>43541.989702893516</v>
+        <v>43539.989701076389</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>-62.581499999999998</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I53">
-        <v>139.41</v>
+        <v>136.83000000000001</v>
       </c>
       <c r="J53" s="1">
-        <v>43541</v>
+        <v>43539</v>
       </c>
       <c r="K53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>0.24410000000000001</v>
+        <v>37.607300000000002</v>
       </c>
       <c r="C54">
-        <v>99.755899999999997</v>
+        <v>62.392699999999998</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>43541.989701932871</v>
-      </c>
-      <c r="F54" s="1">
-        <v>43542.989701932871</v>
+        <v>43540.989702893516</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54">
-        <v>137.57</v>
+        <v>140.18</v>
       </c>
       <c r="J54" s="1">
-        <v>43542</v>
+        <v>43540</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -2475,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>28.1723</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="C55">
-        <v>71.827699999999993</v>
+        <v>99.755899999999997</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>43542.989736689815</v>
-      </c>
-      <c r="F55" s="1">
-        <v>43543.989736689815</v>
+        <v>43541.989701932871</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I55">
-        <v>137.94999999999999</v>
+        <v>139.41</v>
       </c>
       <c r="J55" s="1">
-        <v>43543</v>
+        <v>43541</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -2513,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>30.767299999999999</v>
+        <v>28.1723</v>
       </c>
       <c r="C56">
-        <v>69.232699999999994</v>
+        <v>71.827699999999993</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>43543.98970204861</v>
-      </c>
-      <c r="F56" s="1">
-        <v>43544.98970204861</v>
+        <v>43542.989736689815</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I56">
-        <v>138.21</v>
+        <v>137.57</v>
       </c>
       <c r="J56" s="1">
-        <v>43544</v>
+        <v>43542</v>
       </c>
       <c r="K56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -2551,151 +2543,151 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>69.611400000000003</v>
+        <v>30.767299999999999</v>
       </c>
       <c r="C57">
-        <v>30.3886</v>
+        <v>69.232699999999994</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>43544.989702002313</v>
-      </c>
-      <c r="F57" s="1">
-        <v>43545.989702002313</v>
+        <v>43543.98970204861</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I57">
-        <v>134.71</v>
+        <v>137.94999999999999</v>
       </c>
       <c r="J57" s="1">
-        <v>43545</v>
+        <v>43543</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>82.361099999999993</v>
+        <v>69.611400000000003</v>
       </c>
       <c r="C58">
-        <v>17.5914</v>
+        <v>30.3886</v>
       </c>
       <c r="D58">
-        <v>4.7500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>43545.989740243058</v>
-      </c>
-      <c r="F58" s="1">
-        <v>43546.989740243058</v>
+        <v>43544.989702002313</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>69.611400000000003</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I58">
-        <v>136.62</v>
+        <v>138.21</v>
       </c>
       <c r="J58" s="1">
-        <v>43546</v>
+        <v>43544</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>66.762100000000004</v>
+        <v>82.361099999999993</v>
       </c>
       <c r="C59">
-        <v>33.066600000000001</v>
+        <v>17.5914</v>
       </c>
       <c r="D59">
-        <v>0.17119999999999999</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="E59" s="1">
-        <v>43546.989703506944</v>
-      </c>
-      <c r="F59" s="1">
-        <v>43547.989703506944</v>
+        <v>43545.989740243058</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>82.361099999999993</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I59">
-        <v>137.01</v>
+        <v>134.71</v>
       </c>
       <c r="J59" s="1">
-        <v>43547</v>
+        <v>43545</v>
       </c>
       <c r="K59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>66.762100000000004</v>
       </c>
       <c r="C60">
-        <v>7.6692</v>
+        <v>33.066600000000001</v>
       </c>
       <c r="D60">
-        <v>92.330799999999996</v>
+        <v>0.17119999999999999</v>
       </c>
       <c r="E60" s="1">
-        <v>43547.989736886571</v>
-      </c>
-      <c r="F60" s="1">
-        <v>43548.989736886571</v>
+        <v>43546.989703506944</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>-1</v>
+        <v>66.762100000000004</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I60">
-        <v>136.53</v>
+        <v>136.62</v>
       </c>
       <c r="J60" s="1">
-        <v>43548</v>
+        <v>43546</v>
       </c>
       <c r="K60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -2703,75 +2695,75 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>70.799499999999995</v>
+        <v>7.6692</v>
       </c>
       <c r="D61">
-        <v>29.200500000000002</v>
+        <v>92.330799999999996</v>
       </c>
       <c r="E61" s="1">
-        <v>43548.989702928244</v>
-      </c>
-      <c r="F61" s="1">
-        <v>43549.989702928244</v>
+        <v>43547.989736886571</v>
+      </c>
+      <c r="F61">
+        <v>-1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>-92.330799999999996</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I61">
-        <v>133.94</v>
+        <v>137.01</v>
       </c>
       <c r="J61" s="1">
-        <v>43549</v>
+        <v>43547</v>
       </c>
       <c r="K61">
         <v>-1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>99.886200000000002</v>
+        <v>70.799499999999995</v>
       </c>
       <c r="D62">
-        <v>0.1138</v>
+        <v>29.200500000000002</v>
       </c>
       <c r="E62" s="1">
-        <v>43549.989738159726</v>
-      </c>
-      <c r="F62" s="1">
-        <v>43550.989738159726</v>
+        <v>43548.989702928244</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I62">
-        <v>133.69999999999999</v>
+        <v>136.53</v>
       </c>
       <c r="J62" s="1">
-        <v>43550</v>
+        <v>43548</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -2779,110 +2771,110 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>49.457799999999999</v>
+        <v>99.886200000000002</v>
       </c>
       <c r="D63">
-        <v>50.542200000000001</v>
+        <v>0.1138</v>
       </c>
       <c r="E63" s="1">
-        <v>43550.989701539351</v>
-      </c>
-      <c r="F63" s="1">
-        <v>43551.989701539351</v>
+        <v>43549.989738159726</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I63">
-        <v>138.04</v>
+        <v>133.94</v>
       </c>
       <c r="J63" s="1">
-        <v>43551</v>
+        <v>43549</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L63">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>52.261400000000002</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>47.738599999999998</v>
+        <v>49.457799999999999</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>50.542200000000001</v>
       </c>
       <c r="E64" s="1">
-        <v>43551.989704201391</v>
-      </c>
-      <c r="F64" s="1">
-        <v>43552.989704201391</v>
+        <v>43550.989701539351</v>
+      </c>
+      <c r="F64">
+        <v>-1</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>-50.542200000000001</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I64">
-        <v>138.26</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="J64" s="1">
-        <v>43552</v>
+        <v>43550</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>88.476900000000001</v>
+        <v>52.261400000000002</v>
       </c>
       <c r="C65">
-        <v>11.3889</v>
+        <v>47.738599999999998</v>
       </c>
       <c r="D65">
-        <v>0.1341</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>43552.989736770833</v>
-      </c>
-      <c r="F65" s="1">
-        <v>43553.989736770833</v>
+        <v>43551.989704201391</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>52.261400000000002</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I65">
-        <v>140.99</v>
+        <v>138.04</v>
       </c>
       <c r="J65" s="1">
-        <v>43553</v>
+        <v>43551</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -2893,72 +2885,72 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>66.354200000000006</v>
+        <v>88.476900000000001</v>
       </c>
       <c r="C66">
-        <v>33.645800000000001</v>
+        <v>11.3889</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.1341</v>
       </c>
       <c r="E66" s="1">
-        <v>43553.989703622683</v>
-      </c>
-      <c r="F66" s="1">
-        <v>43554.989703622683</v>
+        <v>43552.989736770833</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>88.476900000000001</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I66">
-        <v>141.5</v>
+        <v>138.26</v>
       </c>
       <c r="J66" s="1">
-        <v>43554</v>
+        <v>43552</v>
       </c>
       <c r="K66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>57.027099999999997</v>
+        <v>66.354200000000006</v>
       </c>
       <c r="C67">
-        <v>42.972900000000003</v>
+        <v>33.645800000000001</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>43554.98970431713</v>
-      </c>
-      <c r="F67" s="1">
-        <v>43555.98970431713</v>
+        <v>43553.989703622683</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>66.354200000000006</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I67">
-        <v>141.05000000000001</v>
+        <v>140.99</v>
       </c>
       <c r="J67" s="1">
-        <v>43555</v>
+        <v>43553</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -2969,72 +2961,72 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>29.852</v>
+        <v>57.027099999999997</v>
       </c>
       <c r="C68">
-        <v>70.033900000000003</v>
+        <v>42.972900000000003</v>
       </c>
       <c r="D68">
-        <v>0.11409999999999999</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>43555.989736111114</v>
-      </c>
-      <c r="F68" s="1">
-        <v>43556.989736111114</v>
+        <v>43554.98970431713</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>57.027099999999997</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I68">
-        <v>141.62</v>
+        <v>141.5</v>
       </c>
       <c r="J68" s="1">
-        <v>43556</v>
+        <v>43554</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>30.365600000000001</v>
+        <v>29.852</v>
       </c>
       <c r="C69">
-        <v>69.578100000000006</v>
+        <v>70.033900000000003</v>
       </c>
       <c r="D69">
-        <v>5.6300000000000003E-2</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="E69" s="1">
-        <v>43556.989736724536</v>
-      </c>
-      <c r="F69" s="1">
-        <v>43557.989736724536</v>
+        <v>43555.989736111114</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I69">
-        <v>155.30000000000001</v>
+        <v>141.05000000000001</v>
       </c>
       <c r="J69" s="1">
-        <v>43557</v>
+        <v>43555</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -3045,113 +3037,113 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>51.682299999999998</v>
+        <v>30.365600000000001</v>
       </c>
       <c r="C70">
-        <v>48.317700000000002</v>
+        <v>69.578100000000006</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="E70" s="1">
-        <v>43557.989737881944</v>
-      </c>
-      <c r="F70" s="1">
-        <v>43558.989737881944</v>
+        <v>43556.989736724536</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I70">
-        <v>168.17</v>
+        <v>141.62</v>
       </c>
       <c r="J70" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="K70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>45.490600000000001</v>
+        <v>51.682299999999998</v>
       </c>
       <c r="C71">
-        <v>54.509399999999999</v>
+        <v>48.317700000000002</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>43558.989704398147</v>
-      </c>
-      <c r="F71" s="1">
-        <v>43559.989704398147</v>
+        <v>43557.989737881944</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>51.682299999999998</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I71">
-        <v>160.58000000000001</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="J71" s="1">
-        <v>43559</v>
+        <v>43557</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>23.479500000000002</v>
+        <v>45.490600000000001</v>
       </c>
       <c r="C72">
-        <v>76.161199999999994</v>
+        <v>54.509399999999999</v>
       </c>
       <c r="D72">
-        <v>0.35930000000000001</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>43559.989701354163</v>
-      </c>
-      <c r="F72" s="1">
-        <v>43560.989701354163</v>
+        <v>43558.989704398147</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72">
-        <v>163.55000000000001</v>
+        <v>168.17</v>
       </c>
       <c r="J72" s="1">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3159,37 +3151,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>44.152200000000001</v>
+        <v>23.479500000000002</v>
       </c>
       <c r="C73">
-        <v>55.847799999999999</v>
+        <v>76.161199999999994</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.35930000000000001</v>
       </c>
       <c r="E73" s="1">
-        <v>43560.98973572917</v>
-      </c>
-      <c r="F73" s="1">
-        <v>43561.98973572917</v>
+        <v>43559.989701354163</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73">
-        <v>166.91</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="J73" s="1">
-        <v>43561</v>
+        <v>43559</v>
       </c>
       <c r="K73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3197,34 +3189,34 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>43.420499999999997</v>
+        <v>44.152200000000001</v>
       </c>
       <c r="C74">
-        <v>56.579500000000003</v>
+        <v>55.847799999999999</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>43561.989702743056</v>
-      </c>
-      <c r="F74" s="1">
-        <v>43562.989702743056</v>
+        <v>43560.98973572917</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I74">
-        <v>166.75</v>
+        <v>163.55000000000001</v>
       </c>
       <c r="J74" s="1">
-        <v>43562</v>
+        <v>43560</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -3235,34 +3227,34 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>42.273400000000002</v>
+        <v>43.420499999999997</v>
       </c>
       <c r="C75">
-        <v>57.726599999999998</v>
+        <v>56.579500000000003</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>43562.98970416667</v>
-      </c>
-      <c r="F75" s="1">
-        <v>43563.98970416667</v>
+        <v>43561.989702743056</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I75">
-        <v>179.88</v>
+        <v>166.91</v>
       </c>
       <c r="J75" s="1">
-        <v>43563</v>
+        <v>43561</v>
       </c>
       <c r="K75">
         <v>-1</v>
@@ -3273,34 +3265,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>40.223300000000002</v>
+        <v>42.273400000000002</v>
       </c>
       <c r="C76">
-        <v>59.776699999999998</v>
+        <v>57.726599999999998</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>43563.989737847223</v>
-      </c>
-      <c r="F76" s="1">
-        <v>43564.989737847223</v>
+        <v>43562.98970416667</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I76">
-        <v>175.02</v>
+        <v>166.75</v>
       </c>
       <c r="J76" s="1">
-        <v>43564</v>
+        <v>43562</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -3311,34 +3303,34 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>32.801900000000003</v>
+        <v>40.223300000000002</v>
       </c>
       <c r="C77">
-        <v>67.198099999999997</v>
+        <v>59.776699999999998</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>43564.989737847223</v>
-      </c>
-      <c r="F77" s="1">
-        <v>43565.989737847223</v>
+        <v>43563.989737847223</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I77">
-        <v>179.1</v>
+        <v>179.88</v>
       </c>
       <c r="J77" s="1">
-        <v>43565</v>
+        <v>43563</v>
       </c>
       <c r="K77">
         <v>-1</v>
@@ -3349,34 +3341,34 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>0.34839999999999999</v>
+        <v>32.801900000000003</v>
       </c>
       <c r="C78">
-        <v>99.096199999999996</v>
+        <v>67.198099999999997</v>
       </c>
       <c r="D78">
-        <v>0.5554</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>43565.989703472223</v>
-      </c>
-      <c r="F78" s="1">
-        <v>43566.989703472223</v>
+        <v>43564.989737847223</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I78">
-        <v>162.18</v>
+        <v>175.02</v>
       </c>
       <c r="J78" s="1">
-        <v>43566</v>
+        <v>43564</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -3387,34 +3379,34 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>0.12909999999999999</v>
+        <v>0.34839999999999999</v>
       </c>
       <c r="C79">
-        <v>96.614599999999996</v>
+        <v>99.096199999999996</v>
       </c>
       <c r="D79">
-        <v>3.2563</v>
+        <v>0.5554</v>
       </c>
       <c r="E79" s="1">
-        <v>43566.989704050924</v>
-      </c>
-      <c r="F79" s="1">
-        <v>43567.989704050924</v>
+        <v>43565.989703472223</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I79">
-        <v>163.34</v>
+        <v>179.1</v>
       </c>
       <c r="J79" s="1">
-        <v>43567</v>
+        <v>43565</v>
       </c>
       <c r="K79">
         <v>-1</v>
@@ -3425,34 +3417,34 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>1.1599999999999999E-2</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="C80">
-        <v>89.516999999999996</v>
+        <v>96.614599999999996</v>
       </c>
       <c r="D80">
-        <v>10.471399999999999</v>
+        <v>3.2563</v>
       </c>
       <c r="E80" s="1">
-        <v>43567.989703784726</v>
-      </c>
-      <c r="F80" s="1">
-        <v>43568.989703784726</v>
+        <v>43566.989704050924</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I80">
-        <v>162.9</v>
+        <v>162.18</v>
       </c>
       <c r="J80" s="1">
-        <v>43568</v>
+        <v>43566</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -3463,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>0.31269999999999998</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="C81">
-        <v>72.100700000000003</v>
+        <v>89.516999999999996</v>
       </c>
       <c r="D81">
-        <v>27.586600000000001</v>
+        <v>10.471399999999999</v>
       </c>
       <c r="E81" s="1">
-        <v>43568.989737928241</v>
-      </c>
-      <c r="F81" s="1">
-        <v>43569.989737928241</v>
+        <v>43567.989703784726</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I81">
-        <v>163.16</v>
+        <v>163.34</v>
       </c>
       <c r="J81" s="1">
-        <v>43569</v>
+        <v>43567</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -3501,113 +3493,113 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>0.435</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="C82">
-        <v>46.165100000000002</v>
+        <v>72.100700000000003</v>
       </c>
       <c r="D82">
-        <v>53.4</v>
+        <v>27.586600000000001</v>
       </c>
       <c r="E82" s="1">
-        <v>43569.989739432873</v>
-      </c>
-      <c r="F82" s="1">
-        <v>43570.989739432873</v>
+        <v>43568.989737928241</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I82">
-        <v>165.63</v>
+        <v>162.9</v>
       </c>
       <c r="J82" s="1">
-        <v>43570</v>
+        <v>43568</v>
       </c>
       <c r="K82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>0.19919999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="C83">
-        <v>56.185099999999998</v>
+        <v>46.165100000000002</v>
       </c>
       <c r="D83">
-        <v>43.615699999999997</v>
+        <v>53.4</v>
       </c>
       <c r="E83" s="1">
-        <v>43570.989704664353</v>
-      </c>
-      <c r="F83" s="1">
-        <v>43571.989704664353</v>
+        <v>43569.989739432873</v>
+      </c>
+      <c r="F83">
+        <v>-1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>-53.4</v>
       </c>
       <c r="H83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I83">
-        <v>163.22</v>
+        <v>163.16</v>
       </c>
       <c r="J83" s="1">
-        <v>43571</v>
+        <v>43569</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.19919999999999999</v>
       </c>
       <c r="C84">
-        <v>69.370199999999997</v>
+        <v>56.185099999999998</v>
       </c>
       <c r="D84">
-        <v>30.629799999999999</v>
+        <v>43.615699999999997</v>
       </c>
       <c r="E84" s="1">
-        <v>43571.989701076389</v>
-      </c>
-      <c r="F84" s="1">
-        <v>43572.989701076389</v>
+        <v>43570.989704664353</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I84">
-        <v>165.14</v>
+        <v>165.63</v>
       </c>
       <c r="J84" s="1">
-        <v>43572</v>
+        <v>43570</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -3615,34 +3607,34 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>64.046899999999994</v>
+        <v>69.370199999999997</v>
       </c>
       <c r="D85">
-        <v>35.953099999999999</v>
+        <v>30.629799999999999</v>
       </c>
       <c r="E85" s="1">
-        <v>43572.989700034719</v>
-      </c>
-      <c r="F85" s="1">
-        <v>43573.989700034719</v>
+        <v>43571.989701076389</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I85">
-        <v>171.7</v>
+        <v>163.22</v>
       </c>
       <c r="J85" s="1">
-        <v>43573</v>
+        <v>43571</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -3653,110 +3645,110 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>58.579599999999999</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>41.420400000000001</v>
+        <v>64.046899999999994</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>35.953099999999999</v>
       </c>
       <c r="E86" s="1">
-        <v>43573.989701238424</v>
-      </c>
-      <c r="F86" s="1">
-        <v>43574.989701238424</v>
+        <v>43572.989700034719</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I86">
-        <v>172.01</v>
+        <v>165.14</v>
       </c>
       <c r="J86" s="1">
-        <v>43574</v>
+        <v>43572</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>7.9090999999999996</v>
+        <v>58.579599999999999</v>
       </c>
       <c r="C87">
-        <v>92.090900000000005</v>
+        <v>41.420400000000001</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>43574.989735104165</v>
-      </c>
-      <c r="F87" s="1">
-        <v>43575.989735104165</v>
+        <v>43573.989701238424</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>58.579599999999999</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I87">
-        <v>172.15</v>
+        <v>171.7</v>
       </c>
       <c r="J87" s="1">
-        <v>43575</v>
+        <v>43573</v>
       </c>
       <c r="K87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>8.7420000000000009</v>
+        <v>7.9090999999999996</v>
       </c>
       <c r="C88">
-        <v>91.257999999999996</v>
+        <v>92.090900000000005</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>43575.989700844904</v>
-      </c>
-      <c r="F88" s="1">
-        <v>43576.989700844904</v>
+        <v>43574.989735104165</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I88">
-        <v>167.87</v>
+        <v>172.01</v>
       </c>
       <c r="J88" s="1">
-        <v>43576</v>
+        <v>43574</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -3767,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>0.44230000000000003</v>
+        <v>8.7420000000000009</v>
       </c>
       <c r="C89">
-        <v>82.814499999999995</v>
+        <v>91.257999999999996</v>
       </c>
       <c r="D89">
-        <v>16.743200000000002</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>43576.9897346875</v>
-      </c>
-      <c r="F89" s="1">
-        <v>43577.9897346875</v>
+        <v>43575.989700844904</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I89">
-        <v>169.76</v>
+        <v>172.15</v>
       </c>
       <c r="J89" s="1">
-        <v>43577</v>
+        <v>43575</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -3805,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>0.27700000000000002</v>
+        <v>0.44230000000000003</v>
       </c>
       <c r="C90">
-        <v>86.581199999999995</v>
+        <v>82.814499999999995</v>
       </c>
       <c r="D90">
-        <v>13.1418</v>
+        <v>16.743200000000002</v>
       </c>
       <c r="E90" s="1">
-        <v>43577.989701076389</v>
-      </c>
-      <c r="F90" s="1">
-        <v>43578.989701076389</v>
+        <v>43576.9897346875</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I90">
-        <v>172.82</v>
+        <v>167.87</v>
       </c>
       <c r="J90" s="1">
-        <v>43578</v>
+        <v>43576</v>
       </c>
       <c r="K90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -3843,37 +3835,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>45.482999999999997</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="C91">
-        <v>54.517000000000003</v>
+        <v>86.581199999999995</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>13.1418</v>
       </c>
       <c r="E91" s="1">
-        <v>43578.989734803239</v>
-      </c>
-      <c r="F91" s="1">
-        <v>43579.989734803239</v>
+        <v>43577.989701076389</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I91">
-        <v>163.41</v>
+        <v>169.76</v>
       </c>
       <c r="J91" s="1">
-        <v>43579</v>
+        <v>43577</v>
       </c>
       <c r="K91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -3881,34 +3873,34 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B92">
-        <v>0.1173</v>
+        <v>45.482999999999997</v>
       </c>
       <c r="C92">
-        <v>66.073899999999995</v>
+        <v>54.517000000000003</v>
       </c>
       <c r="D92">
-        <v>33.808799999999998</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>43579.989735219904</v>
-      </c>
-      <c r="F92" s="1">
-        <v>43580.989735219904</v>
+        <v>43578.989734803239</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I92">
-        <v>163.30000000000001</v>
+        <v>172.82</v>
       </c>
       <c r="J92" s="1">
-        <v>43580</v>
+        <v>43578</v>
       </c>
       <c r="K92">
         <v>-1</v>
@@ -3919,148 +3911,148 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93">
-        <v>0.53990000000000005</v>
+        <v>0.1173</v>
       </c>
       <c r="C93">
-        <v>9.4664999999999999</v>
+        <v>66.073899999999995</v>
       </c>
       <c r="D93">
-        <v>89.993600000000001</v>
+        <v>33.808799999999998</v>
       </c>
       <c r="E93" s="1">
-        <v>43580.989735150462</v>
-      </c>
-      <c r="F93" s="1">
-        <v>43581.989735150462</v>
+        <v>43579.989735219904</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I93">
-        <v>156.85</v>
+        <v>163.41</v>
       </c>
       <c r="J93" s="1">
-        <v>43581</v>
+        <v>43579</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L93">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B94">
-        <v>6.0400000000000002E-2</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="C94">
-        <v>85.918800000000005</v>
+        <v>9.4664999999999999</v>
       </c>
       <c r="D94">
-        <v>14.020799999999999</v>
+        <v>89.993600000000001</v>
       </c>
       <c r="E94" s="1">
-        <v>43584.989735150462</v>
-      </c>
-      <c r="F94" s="1">
-        <v>43585.989735150462</v>
+        <v>43580.989735150462</v>
+      </c>
+      <c r="F94">
+        <v>-1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>-89.993600000000001</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I94">
-        <v>158.86000000000001</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="J94" s="1">
-        <v>43585</v>
+        <v>43580</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>4.4032</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="C95">
-        <v>95.510499999999993</v>
+        <v>36.060600000000001</v>
       </c>
       <c r="D95">
-        <v>8.6300000000000002E-2</v>
+        <v>63.713799999999999</v>
       </c>
       <c r="E95" s="1">
-        <v>43585.989700694445</v>
-      </c>
-      <c r="F95" s="1">
-        <v>43586.989700694445</v>
+        <v>43581.989700196762</v>
+      </c>
+      <c r="F95">
+        <v>-1</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>-63.713799999999999</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I95">
-        <v>160.35</v>
+        <v>156.85</v>
       </c>
       <c r="J95" s="1">
-        <v>43586</v>
+        <v>43581</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>4.4032</v>
       </c>
       <c r="C96">
-        <v>73.132900000000006</v>
+        <v>95.510499999999993</v>
       </c>
       <c r="D96">
-        <v>26.867100000000001</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="E96" s="1">
-        <v>43586.98973483796</v>
-      </c>
-      <c r="F96" s="1">
-        <v>43587.98973483796</v>
+        <v>43585.989700694445</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I96">
-        <v>160.94999999999999</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="J96" s="1">
-        <v>43587</v>
+        <v>43585</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -4071,198 +4063,274 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>22.1922</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>15.2537</v>
+        <v>73.132900000000006</v>
       </c>
       <c r="D97">
-        <v>62.554099999999998</v>
+        <v>26.867100000000001</v>
       </c>
       <c r="E97" s="1">
-        <v>43588.989735300929</v>
-      </c>
-      <c r="F97" s="1">
-        <v>43589.989735300929</v>
+        <v>43586.98973483796</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I97">
-        <v>162.02000000000001</v>
+        <v>160.35</v>
       </c>
       <c r="J97" s="1">
-        <v>43589</v>
+        <v>43586</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>22.1922</v>
       </c>
       <c r="C98">
-        <v>27.663799999999998</v>
+        <v>15.2537</v>
       </c>
       <c r="D98">
-        <v>72.336200000000005</v>
+        <v>62.554099999999998</v>
       </c>
       <c r="E98" s="1">
-        <v>43589.989701122686</v>
-      </c>
-      <c r="F98" s="1">
-        <v>43590.989701122686</v>
+        <v>43588.989735300929</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
       </c>
       <c r="G98">
-        <v>-1</v>
+        <v>-62.554099999999998</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I98">
-        <v>162.93</v>
+        <v>168.23</v>
       </c>
       <c r="J98" s="1">
-        <v>43590</v>
+        <v>43588</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L98">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>2.47E-2</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>66.389200000000002</v>
+        <v>27.663799999999998</v>
       </c>
       <c r="D99">
-        <v>33.586100000000002</v>
+        <v>72.336200000000005</v>
       </c>
       <c r="E99" s="1">
-        <v>43590.989734953706</v>
-      </c>
-      <c r="F99" s="1">
-        <v>43591.989734953706</v>
+        <v>43589.989701122686</v>
+      </c>
+      <c r="F99">
+        <v>-1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>-72.336200000000005</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I99">
-        <v>170.56</v>
+        <v>162.02000000000001</v>
       </c>
       <c r="J99" s="1">
-        <v>43591</v>
+        <v>43589</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B100">
-        <v>64.092299999999994</v>
+        <v>2.47E-2</v>
       </c>
       <c r="C100">
-        <v>35.907699999999998</v>
+        <v>66.389200000000002</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>33.586100000000002</v>
       </c>
       <c r="E100" s="1">
-        <v>43591.989734340277</v>
-      </c>
-      <c r="F100" s="1">
-        <v>43592.989734340277</v>
+        <v>43590.989734953706</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I100">
-        <v>173.42</v>
+        <v>162.93</v>
       </c>
       <c r="J100" s="1">
-        <v>43592</v>
+        <v>43590</v>
       </c>
       <c r="K100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101">
+        <v>64.092299999999994</v>
+      </c>
+      <c r="C101">
+        <v>35.907699999999998</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43591.989734340277</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>64.092299999999994</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101">
+        <v>170.56</v>
+      </c>
+      <c r="J101" s="1">
+        <v>43591</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102">
         <v>65.768500000000003</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>34.231499999999997</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
         <v>43592.989734409719</v>
       </c>
-      <c r="F101" s="1">
-        <v>43593.989734409719</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101">
-        <v>171.29</v>
-      </c>
-      <c r="J101" s="1">
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>65.768500000000003</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102">
+        <v>173.42</v>
+      </c>
+      <c r="J102" s="1">
+        <v>43592</v>
+      </c>
+      <c r="K102">
+        <v>-1</v>
+      </c>
+      <c r="L102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>70.022900000000007</v>
+      </c>
+      <c r="C103">
+        <v>29.757200000000001</v>
+      </c>
+      <c r="D103">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43593.989701122686</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>70.022900000000007</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103">
+        <v>170.32</v>
+      </c>
+      <c r="J103" s="1">
         <v>43593</v>
       </c>
-      <c r="K101" t="s">
-        <v>14</v>
-      </c>
-      <c r="L101">
-        <v>-1</v>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4276,6 +4344,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4289,5 +4358,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>